--- a/neutrons/16 feb 2016/Лист Microsoft Excel.xlsx
+++ b/neutrons/16 feb 2016/Лист Microsoft Excel.xlsx
@@ -379,11 +379,12 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
